--- a/templates/dataplant/Imaging_extraction/Imaging_extraction_v1.0.3.xlsx
+++ b/templates/dataplant/Imaging_extraction/Imaging_extraction_v1.0.3.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59284831-BA98-4D30-8AA5-8E770E24998A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="1995" yWindow="435" windowWidth="24510" windowHeight="15045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="isa_template" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="2EXT05_Imaging" state="visible" r:id="rId5"/>
+    <sheet name="isa_template" sheetId="1" r:id="rId1"/>
+    <sheet name="2EXT05_Imaging" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -89,9 +93,6 @@
     <t>Tags Term Source REF</t>
   </si>
   <si>
-    <t>AFO</t>
-  </si>
-  <si>
     <t>AUTHORS</t>
   </si>
   <si>
@@ -645,19 +646,22 @@
   </si>
   <si>
     <t>no treatment</t>
+  </si>
+  <si>
+    <t>AFP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -700,8 +704,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:DC6" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="A1:DC6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="annotationTable" displayName="annotationTable" ref="A1:DC6">
+  <autoFilter ref="A1:DC6" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -811,113 +815,113 @@
     <filterColumn colId="106" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="107">
-    <tableColumn id="1" name="Input [Source Name]" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Parameter [microscopy sample preparation]" totalsRowFunction="none"/>
-    <tableColumn id="3" name="Term Source REF (DPBO:1000143)" totalsRowFunction="none"/>
-    <tableColumn id="4" name="Term Accession Number (DPBO:1000143)" totalsRowFunction="none"/>
-    <tableColumn id="5" name="Characteristic [prepared organism part]" totalsRowFunction="none"/>
-    <tableColumn id="6" name="Term Source REF (DPBO:1000145)" totalsRowFunction="none"/>
-    <tableColumn id="7" name="Term Accession Number (DPBO:1000145)" totalsRowFunction="none"/>
-    <tableColumn id="8" name="Parameter [generic experimental condition]" totalsRowFunction="none"/>
-    <tableColumn id="9" name="Term Source REF (MS:1001814)" totalsRowFunction="none"/>
-    <tableColumn id="10" name="Term Accession Number (MS:1001814)" totalsRowFunction="none"/>
-    <tableColumn id="11" name="Parameter [antibody]" totalsRowFunction="none"/>
-    <tableColumn id="12" name="Term Source REF (DPBO:1000117)" totalsRowFunction="none"/>
-    <tableColumn id="13" name="Term Accession Number (DPBO:1000117)" totalsRowFunction="none"/>
-    <tableColumn id="14" name="Parameter [staining]" totalsRowFunction="none"/>
-    <tableColumn id="15" name="Term Source REF (OBI:0302887)" totalsRowFunction="none"/>
-    <tableColumn id="16" name="Term Accession Number (OBI:0302887)" totalsRowFunction="none"/>
-    <tableColumn id="17" name="Parameter [channel]" totalsRowFunction="none"/>
-    <tableColumn id="18" name="Term Source REF (DPBO:1000113)" totalsRowFunction="none"/>
-    <tableColumn id="19" name="Term Accession Number (DPBO:1000113)" totalsRowFunction="none"/>
-    <tableColumn id="20" name="Parameter [Gene Identifier]" totalsRowFunction="none"/>
-    <tableColumn id="21" name="Term Source REF (NCIT:C48664)" totalsRowFunction="none"/>
-    <tableColumn id="22" name="Term Accession Number (NCIT:C48664)" totalsRowFunction="none"/>
-    <tableColumn id="23" name="Parameter [gene name]" totalsRowFunction="none"/>
-    <tableColumn id="24" name="Term Source REF (MS:1000934)" totalsRowFunction="none"/>
-    <tableColumn id="25" name="Term Accession Number (MS:1000934)" totalsRowFunction="none"/>
-    <tableColumn id="26" name="Parameter [genome reference sequence]" totalsRowFunction="none"/>
-    <tableColumn id="27" name="Term Source REF (DPBO:0000026)" totalsRowFunction="none"/>
-    <tableColumn id="28" name="Term Accession Number (DPBO:0000026)" totalsRowFunction="none"/>
-    <tableColumn id="29" name="Parameter [microscope slide]" totalsRowFunction="none"/>
-    <tableColumn id="30" name="Term Source REF (OBI:0400170)" totalsRowFunction="none"/>
-    <tableColumn id="31" name="Term Accession Number (OBI:0400170)" totalsRowFunction="none"/>
-    <tableColumn id="32" name="Parameter [Cover Slip]" totalsRowFunction="none"/>
-    <tableColumn id="33" name="Term Source REF (NCIT:C126370)" totalsRowFunction="none"/>
-    <tableColumn id="34" name="Term Accession Number (NCIT:C126370)" totalsRowFunction="none"/>
-    <tableColumn id="35" name="Parameter [liquid layer]" totalsRowFunction="none"/>
-    <tableColumn id="36" name="Term Source REF (ENVO:01001273)" totalsRowFunction="none"/>
-    <tableColumn id="37" name="Term Accession Number (ENVO:01001273)" totalsRowFunction="none"/>
-    <tableColumn id="38" name="Parameter [material fixation]" totalsRowFunction="none"/>
-    <tableColumn id="39" name="Term Source REF (DPBO:1000144)" totalsRowFunction="none"/>
-    <tableColumn id="40" name="Term Accession Number (DPBO:1000144)" totalsRowFunction="none"/>
-    <tableColumn id="41" name="Parameter [cover slip preparation (procedure)]" totalsRowFunction="none"/>
-    <tableColumn id="42" name="Term Source REF (SCTID:71661000)" totalsRowFunction="none"/>
-    <tableColumn id="43" name="Term Accession Number (SCTID:71661000)" totalsRowFunction="none"/>
-    <tableColumn id="44" name="Parameter [high content screening stage]" totalsRowFunction="none"/>
-    <tableColumn id="45" name="Term Source REF (EFO:0007555)" totalsRowFunction="none"/>
-    <tableColumn id="46" name="Term Accession Number (EFO:0007555)" totalsRowFunction="none"/>
-    <tableColumn id="47" name="Parameter [screening library]" totalsRowFunction="none"/>
-    <tableColumn id="48" name="Term Source REF (OBI:0100064)" totalsRowFunction="none"/>
-    <tableColumn id="49" name="Term Accession Number (OBI:0100064)" totalsRowFunction="none"/>
-    <tableColumn id="50" name="Parameter [library version]" totalsRowFunction="none"/>
-    <tableColumn id="51" name="Term Source REF (DPBO:1000116)" totalsRowFunction="none"/>
-    <tableColumn id="52" name="Term Accession Number (DPBO:1000116)" totalsRowFunction="none"/>
-    <tableColumn id="53" name="Parameter [manufacturer]" totalsRowFunction="none"/>
-    <tableColumn id="54" name="Term Source REF (OBI:0000835)" totalsRowFunction="none"/>
-    <tableColumn id="55" name="Term Accession Number (OBI:0000835)" totalsRowFunction="none"/>
-    <tableColumn id="56" name="Parameter [microtiter plate]" totalsRowFunction="none"/>
-    <tableColumn id="57" name="Term Source REF (OBI:0000192)" totalsRowFunction="none"/>
-    <tableColumn id="58" name="Term Accession Number (OBI:0000192)" totalsRowFunction="none"/>
-    <tableColumn id="59" name="Parameter [well]" totalsRowFunction="none"/>
-    <tableColumn id="60" name="Term Source REF (DPBO:1000101)" totalsRowFunction="none"/>
-    <tableColumn id="61" name="Term Accession Number (DPBO:1000101)" totalsRowFunction="none"/>
-    <tableColumn id="62" name="Parameter [well Number]" totalsRowFunction="none"/>
-    <tableColumn id="63" name="Term Source REF (DPBO:1000102)" totalsRowFunction="none"/>
-    <tableColumn id="64" name="Term Accession Number (DPBO:1000102)" totalsRowFunction="none"/>
-    <tableColumn id="65" name="Parameter [siRNA identifier]" totalsRowFunction="none"/>
-    <tableColumn id="66" name="Term Source REF (DPBO:1000103)" totalsRowFunction="none"/>
-    <tableColumn id="67" name="Term Accession Number (DPBO:1000103)" totalsRowFunction="none"/>
-    <tableColumn id="68" name="Parameter [sense sequence]" totalsRowFunction="none"/>
-    <tableColumn id="69" name="Term Source REF (DPBO:1000109)" totalsRowFunction="none"/>
-    <tableColumn id="70" name="Term Accession Number (DPBO:1000109)" totalsRowFunction="none"/>
-    <tableColumn id="71" name="Parameter [antisense sequence]" totalsRowFunction="none"/>
-    <tableColumn id="72" name="Term Source REF (DPBO:1000110)" totalsRowFunction="none"/>
-    <tableColumn id="73" name="Term Accession Number (DPBO:1000110)" totalsRowFunction="none"/>
-    <tableColumn id="74" name="Parameter [reagent design genome reference version]" totalsRowFunction="none"/>
-    <tableColumn id="75" name="Term Source REF (DPBO:1000136)" totalsRowFunction="none"/>
-    <tableColumn id="76" name="Term Accession Number (DPBO:1000136)" totalsRowFunction="none"/>
-    <tableColumn id="77" name="Parameter [compound name]" totalsRowFunction="none"/>
-    <tableColumn id="78" name="Term Source REF (DPBO:1000104)" totalsRowFunction="none"/>
-    <tableColumn id="79" name="Term Accession Number (DPBO:1000104)" totalsRowFunction="none"/>
-    <tableColumn id="80" name="Parameter [compound identifier]" totalsRowFunction="none"/>
-    <tableColumn id="81" name="Term Source REF (DPBO:1000105)" totalsRowFunction="none"/>
-    <tableColumn id="82" name="Term Accession Number (DPBO:1000105)" totalsRowFunction="none"/>
-    <tableColumn id="83" name="Parameter [compound class]" totalsRowFunction="none"/>
-    <tableColumn id="84" name="Term Source REF (DPBO:1000106)" totalsRowFunction="none"/>
-    <tableColumn id="85" name="Term Accession Number (DPBO:1000106)" totalsRowFunction="none"/>
-    <tableColumn id="86" name="Parameter [dose]" totalsRowFunction="none"/>
-    <tableColumn id="87" name="Term Source REF (OBI:0000984)" totalsRowFunction="none"/>
-    <tableColumn id="88" name="Term Accession Number (OBI:0000984)" totalsRowFunction="none"/>
-    <tableColumn id="89" name="Parameter [time]" totalsRowFunction="none"/>
-    <tableColumn id="90" name="Term Source REF (PATO:0000165)" totalsRowFunction="none"/>
-    <tableColumn id="91" name="Term Accession Number (PATO:0000165)" totalsRowFunction="none"/>
-    <tableColumn id="92" name="Parameter [ORF identifier]" totalsRowFunction="none"/>
-    <tableColumn id="93" name="Term Source REF (data:2795)" totalsRowFunction="none"/>
-    <tableColumn id="94" name="Term Accession Number (data:2795)" totalsRowFunction="none"/>
-    <tableColumn id="95" name="Parameter [control type]" totalsRowFunction="none"/>
-    <tableColumn id="96" name="Term Source REF (DPBO:1000111)" totalsRowFunction="none"/>
-    <tableColumn id="97" name="Term Accession Number (DPBO:1000111)" totalsRowFunction="none"/>
-    <tableColumn id="98" name="Parameter [control specification]" totalsRowFunction="none"/>
-    <tableColumn id="99" name="Term Source REF (DPBO:1000137)" totalsRowFunction="none"/>
-    <tableColumn id="100" name="Term Accession Number (DPBO:1000137)" totalsRowFunction="none"/>
-    <tableColumn id="101" name="Parameter [quality control]" totalsRowFunction="none"/>
-    <tableColumn id="102" name="Term Source REF (DPBO:1000112)" totalsRowFunction="none"/>
-    <tableColumn id="103" name="Term Accession Number (DPBO:1000112)" totalsRowFunction="none"/>
-    <tableColumn id="104" name="Parameter [quality control comments]" totalsRowFunction="none"/>
-    <tableColumn id="105" name="Term Source REF (DPBO:1000138)" totalsRowFunction="none"/>
-    <tableColumn id="106" name="Term Accession Number (DPBO:1000138)" totalsRowFunction="none"/>
-    <tableColumn id="107" name="Output [Sample Name]" totalsRowFunction="none"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Input [Source Name]" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Parameter [microscopy sample preparation]"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Term Source REF (DPBO:1000143)"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Term Accession Number (DPBO:1000143)"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Characteristic [prepared organism part]"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Term Source REF (DPBO:1000145)"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Term Accession Number (DPBO:1000145)"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Parameter [generic experimental condition]"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Term Source REF (MS:1001814)"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Term Accession Number (MS:1001814)"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Parameter [antibody]"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Term Source REF (DPBO:1000117)"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Term Accession Number (DPBO:1000117)"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Parameter [staining]"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Term Source REF (OBI:0302887)"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Term Accession Number (OBI:0302887)"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Parameter [channel]"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Term Source REF (DPBO:1000113)"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Term Accession Number (DPBO:1000113)"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Parameter [Gene Identifier]"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Term Source REF (NCIT:C48664)"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Term Accession Number (NCIT:C48664)"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Parameter [gene name]"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Term Source REF (MS:1000934)"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Term Accession Number (MS:1000934)"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Parameter [genome reference sequence]"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Term Source REF (DPBO:0000026)"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Term Accession Number (DPBO:0000026)"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Parameter [microscope slide]"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Term Source REF (OBI:0400170)"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="Term Accession Number (OBI:0400170)"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="Parameter [Cover Slip]"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="Term Source REF (NCIT:C126370)"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="Term Accession Number (NCIT:C126370)"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="Parameter [liquid layer]"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="Term Source REF (ENVO:01001273)"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="Term Accession Number (ENVO:01001273)"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="Parameter [material fixation]"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="Term Source REF (DPBO:1000144)"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="Term Accession Number (DPBO:1000144)"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="Parameter [cover slip preparation (procedure)]"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="Term Source REF (SCTID:71661000)"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="Term Accession Number (SCTID:71661000)"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="Parameter [high content screening stage]"/>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="Term Source REF (EFO:0007555)"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="Term Accession Number (EFO:0007555)"/>
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" name="Parameter [screening library]"/>
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" name="Term Source REF (OBI:0100064)"/>
+    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" name="Term Accession Number (OBI:0100064)"/>
+    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" name="Parameter [library version]"/>
+    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0000-000033000000}" name="Term Source REF (DPBO:1000116)"/>
+    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0000-000034000000}" name="Term Accession Number (DPBO:1000116)"/>
+    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" name="Parameter [manufacturer]"/>
+    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" name="Term Source REF (OBI:0000835)"/>
+    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0000-000037000000}" name="Term Accession Number (OBI:0000835)"/>
+    <tableColumn id="56" xr3:uid="{00000000-0010-0000-0000-000038000000}" name="Parameter [microtiter plate]"/>
+    <tableColumn id="57" xr3:uid="{00000000-0010-0000-0000-000039000000}" name="Term Source REF (OBI:0000192)"/>
+    <tableColumn id="58" xr3:uid="{00000000-0010-0000-0000-00003A000000}" name="Term Accession Number (OBI:0000192)"/>
+    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0000-00003B000000}" name="Parameter [well]"/>
+    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0000-00003C000000}" name="Term Source REF (DPBO:1000101)"/>
+    <tableColumn id="61" xr3:uid="{00000000-0010-0000-0000-00003D000000}" name="Term Accession Number (DPBO:1000101)"/>
+    <tableColumn id="62" xr3:uid="{00000000-0010-0000-0000-00003E000000}" name="Parameter [well Number]"/>
+    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0000-00003F000000}" name="Term Source REF (DPBO:1000102)"/>
+    <tableColumn id="64" xr3:uid="{00000000-0010-0000-0000-000040000000}" name="Term Accession Number (DPBO:1000102)"/>
+    <tableColumn id="65" xr3:uid="{00000000-0010-0000-0000-000041000000}" name="Parameter [siRNA identifier]"/>
+    <tableColumn id="66" xr3:uid="{00000000-0010-0000-0000-000042000000}" name="Term Source REF (DPBO:1000103)"/>
+    <tableColumn id="67" xr3:uid="{00000000-0010-0000-0000-000043000000}" name="Term Accession Number (DPBO:1000103)"/>
+    <tableColumn id="68" xr3:uid="{00000000-0010-0000-0000-000044000000}" name="Parameter [sense sequence]"/>
+    <tableColumn id="69" xr3:uid="{00000000-0010-0000-0000-000045000000}" name="Term Source REF (DPBO:1000109)"/>
+    <tableColumn id="70" xr3:uid="{00000000-0010-0000-0000-000046000000}" name="Term Accession Number (DPBO:1000109)"/>
+    <tableColumn id="71" xr3:uid="{00000000-0010-0000-0000-000047000000}" name="Parameter [antisense sequence]"/>
+    <tableColumn id="72" xr3:uid="{00000000-0010-0000-0000-000048000000}" name="Term Source REF (DPBO:1000110)"/>
+    <tableColumn id="73" xr3:uid="{00000000-0010-0000-0000-000049000000}" name="Term Accession Number (DPBO:1000110)"/>
+    <tableColumn id="74" xr3:uid="{00000000-0010-0000-0000-00004A000000}" name="Parameter [reagent design genome reference version]"/>
+    <tableColumn id="75" xr3:uid="{00000000-0010-0000-0000-00004B000000}" name="Term Source REF (DPBO:1000136)"/>
+    <tableColumn id="76" xr3:uid="{00000000-0010-0000-0000-00004C000000}" name="Term Accession Number (DPBO:1000136)"/>
+    <tableColumn id="77" xr3:uid="{00000000-0010-0000-0000-00004D000000}" name="Parameter [compound name]"/>
+    <tableColumn id="78" xr3:uid="{00000000-0010-0000-0000-00004E000000}" name="Term Source REF (DPBO:1000104)"/>
+    <tableColumn id="79" xr3:uid="{00000000-0010-0000-0000-00004F000000}" name="Term Accession Number (DPBO:1000104)"/>
+    <tableColumn id="80" xr3:uid="{00000000-0010-0000-0000-000050000000}" name="Parameter [compound identifier]"/>
+    <tableColumn id="81" xr3:uid="{00000000-0010-0000-0000-000051000000}" name="Term Source REF (DPBO:1000105)"/>
+    <tableColumn id="82" xr3:uid="{00000000-0010-0000-0000-000052000000}" name="Term Accession Number (DPBO:1000105)"/>
+    <tableColumn id="83" xr3:uid="{00000000-0010-0000-0000-000053000000}" name="Parameter [compound class]"/>
+    <tableColumn id="84" xr3:uid="{00000000-0010-0000-0000-000054000000}" name="Term Source REF (DPBO:1000106)"/>
+    <tableColumn id="85" xr3:uid="{00000000-0010-0000-0000-000055000000}" name="Term Accession Number (DPBO:1000106)"/>
+    <tableColumn id="86" xr3:uid="{00000000-0010-0000-0000-000056000000}" name="Parameter [dose]"/>
+    <tableColumn id="87" xr3:uid="{00000000-0010-0000-0000-000057000000}" name="Term Source REF (OBI:0000984)"/>
+    <tableColumn id="88" xr3:uid="{00000000-0010-0000-0000-000058000000}" name="Term Accession Number (OBI:0000984)"/>
+    <tableColumn id="89" xr3:uid="{00000000-0010-0000-0000-000059000000}" name="Parameter [time]"/>
+    <tableColumn id="90" xr3:uid="{00000000-0010-0000-0000-00005A000000}" name="Term Source REF (PATO:0000165)"/>
+    <tableColumn id="91" xr3:uid="{00000000-0010-0000-0000-00005B000000}" name="Term Accession Number (PATO:0000165)"/>
+    <tableColumn id="92" xr3:uid="{00000000-0010-0000-0000-00005C000000}" name="Parameter [ORF identifier]"/>
+    <tableColumn id="93" xr3:uid="{00000000-0010-0000-0000-00005D000000}" name="Term Source REF (data:2795)"/>
+    <tableColumn id="94" xr3:uid="{00000000-0010-0000-0000-00005E000000}" name="Term Accession Number (data:2795)"/>
+    <tableColumn id="95" xr3:uid="{00000000-0010-0000-0000-00005F000000}" name="Parameter [control type]"/>
+    <tableColumn id="96" xr3:uid="{00000000-0010-0000-0000-000060000000}" name="Term Source REF (DPBO:1000111)"/>
+    <tableColumn id="97" xr3:uid="{00000000-0010-0000-0000-000061000000}" name="Term Accession Number (DPBO:1000111)"/>
+    <tableColumn id="98" xr3:uid="{00000000-0010-0000-0000-000062000000}" name="Parameter [control specification]"/>
+    <tableColumn id="99" xr3:uid="{00000000-0010-0000-0000-000063000000}" name="Term Source REF (DPBO:1000137)"/>
+    <tableColumn id="100" xr3:uid="{00000000-0010-0000-0000-000064000000}" name="Term Accession Number (DPBO:1000137)"/>
+    <tableColumn id="101" xr3:uid="{00000000-0010-0000-0000-000065000000}" name="Parameter [quality control]"/>
+    <tableColumn id="102" xr3:uid="{00000000-0010-0000-0000-000066000000}" name="Term Source REF (DPBO:1000112)"/>
+    <tableColumn id="103" xr3:uid="{00000000-0010-0000-0000-000067000000}" name="Term Accession Number (DPBO:1000112)"/>
+    <tableColumn id="104" xr3:uid="{00000000-0010-0000-0000-000068000000}" name="Parameter [quality control comments]"/>
+    <tableColumn id="105" xr3:uid="{00000000-0010-0000-0000-000069000000}" name="Term Source REF (DPBO:1000138)"/>
+    <tableColumn id="106" xr3:uid="{00000000-0010-0000-0000-00006A000000}" name="Term Accession Number (DPBO:1000138)"/>
+    <tableColumn id="107" xr3:uid="{00000000-0010-0000-0000-00006B000000}" name="Output [Sample Name]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1219,16 +1223,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C27"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="41.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1236,7 +1248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1244,7 +1256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1252,7 +1264,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1260,7 +1272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1268,7 +1280,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1276,27 +1288,27 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1328,2027 +1340,2030 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
         <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
         <v>29</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:DC6"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>49</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>51</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>52</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>53</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>54</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>55</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>56</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>57</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>58</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>59</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>60</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>61</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>62</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>63</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>64</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>65</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>67</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>68</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>69</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>70</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>71</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>72</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>73</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>74</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>75</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>76</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>77</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>78</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>79</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>80</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>81</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>82</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>83</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>84</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>85</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>86</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>87</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>88</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>89</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>90</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>91</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>92</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>93</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>94</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>95</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>96</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>97</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>98</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>99</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>100</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>101</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>102</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>103</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>104</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>105</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>106</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>107</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>108</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>109</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>110</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>111</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>112</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>113</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>114</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>115</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>116</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>117</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>118</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CC1" t="s">
         <v>119</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CD1" t="s">
         <v>120</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CE1" t="s">
         <v>121</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CF1" t="s">
         <v>122</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CG1" t="s">
         <v>123</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CH1" t="s">
         <v>124</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CI1" t="s">
         <v>125</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CJ1" t="s">
         <v>126</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CK1" t="s">
         <v>127</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CL1" t="s">
         <v>128</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CM1" t="s">
         <v>129</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CN1" t="s">
         <v>130</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CO1" t="s">
         <v>131</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CP1" t="s">
         <v>132</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CQ1" t="s">
         <v>133</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CR1" t="s">
         <v>134</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CS1" t="s">
         <v>135</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CT1" t="s">
         <v>136</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CU1" t="s">
         <v>137</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CV1" t="s">
         <v>138</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CW1" t="s">
         <v>139</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CX1" t="s">
         <v>140</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="CY1" t="s">
         <v>141</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="CZ1" t="s">
         <v>142</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DA1" t="s">
         <v>143</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DB1" t="s">
         <v>144</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DC1" t="s">
         <v>145</v>
-      </c>
-      <c r="DC1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" t="s">
         <v>147</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" t="s">
         <v>148</v>
       </c>
-      <c r="C2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H2" t="s">
         <v>149</v>
       </c>
-      <c r="F2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K2" t="s">
         <v>150</v>
       </c>
-      <c r="I2" t="s">
-        <v>147</v>
-      </c>
-      <c r="J2" t="s">
-        <v>147</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M2" t="s">
+        <v>146</v>
+      </c>
+      <c r="N2" t="s">
         <v>151</v>
       </c>
-      <c r="L2" t="s">
-        <v>147</v>
-      </c>
-      <c r="M2" t="s">
-        <v>147</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
+        <v>146</v>
+      </c>
+      <c r="P2" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q2" t="s">
         <v>152</v>
       </c>
-      <c r="O2" t="s">
-        <v>147</v>
-      </c>
-      <c r="P2" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
+        <v>146</v>
+      </c>
+      <c r="S2" t="s">
+        <v>146</v>
+      </c>
+      <c r="T2" t="s">
         <v>153</v>
       </c>
-      <c r="R2" t="s">
-        <v>147</v>
-      </c>
-      <c r="S2" t="s">
-        <v>147</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
+        <v>146</v>
+      </c>
+      <c r="V2" t="s">
+        <v>146</v>
+      </c>
+      <c r="W2" t="s">
         <v>154</v>
       </c>
-      <c r="U2" t="s">
-        <v>147</v>
-      </c>
-      <c r="V2" t="s">
-        <v>147</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z2" t="s">
         <v>155</v>
       </c>
-      <c r="X2" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC2" t="s">
         <v>156</v>
       </c>
-      <c r="AA2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF2" t="s">
         <v>157</v>
       </c>
-      <c r="AD2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI2" t="s">
         <v>158</v>
       </c>
-      <c r="AG2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL2" t="s">
         <v>159</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO2" t="s">
         <v>160</v>
       </c>
-      <c r="AM2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AR2" t="s">
         <v>161</v>
       </c>
-      <c r="AP2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AU2" t="s">
         <v>162</v>
       </c>
-      <c r="AS2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AU2" t="s">
+      <c r="AV2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AX2" t="s">
         <v>163</v>
       </c>
-      <c r="AV2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AX2" t="s">
+      <c r="AY2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA2" t="s">
         <v>164</v>
       </c>
-      <c r="AY2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>147</v>
-      </c>
-      <c r="BA2" t="s">
+      <c r="BB2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BD2" t="s">
         <v>165</v>
       </c>
-      <c r="BB2" t="s">
-        <v>147</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>147</v>
-      </c>
-      <c r="BD2" t="s">
+      <c r="BE2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BG2" t="s">
         <v>166</v>
       </c>
-      <c r="BE2" t="s">
-        <v>147</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>147</v>
-      </c>
-      <c r="BG2" t="s">
+      <c r="BH2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BJ2" t="s">
         <v>167</v>
       </c>
-      <c r="BH2" t="s">
-        <v>147</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>147</v>
-      </c>
-      <c r="BJ2" t="s">
+      <c r="BK2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BM2" t="s">
         <v>168</v>
       </c>
-      <c r="BK2" t="s">
-        <v>147</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>147</v>
-      </c>
-      <c r="BM2" t="s">
+      <c r="BN2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BP2" t="s">
         <v>169</v>
       </c>
-      <c r="BN2" t="s">
-        <v>147</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>147</v>
-      </c>
-      <c r="BP2" t="s">
+      <c r="BQ2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BS2" t="s">
         <v>170</v>
       </c>
-      <c r="BQ2" t="s">
-        <v>147</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>147</v>
-      </c>
-      <c r="BS2" t="s">
+      <c r="BT2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>155</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BY2" t="s">
         <v>171</v>
       </c>
-      <c r="BT2" t="s">
-        <v>147</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>147</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>156</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>147</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>147</v>
-      </c>
-      <c r="BY2" t="s">
+      <c r="BZ2" t="s">
+        <v>146</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>146</v>
+      </c>
+      <c r="CB2" t="s">
         <v>172</v>
       </c>
-      <c r="BZ2" t="s">
-        <v>147</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>147</v>
-      </c>
-      <c r="CB2" t="s">
+      <c r="CC2" t="s">
+        <v>146</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>146</v>
+      </c>
+      <c r="CE2" t="s">
         <v>173</v>
       </c>
-      <c r="CC2" t="s">
-        <v>147</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>147</v>
-      </c>
-      <c r="CE2" t="s">
+      <c r="CF2" t="s">
+        <v>146</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>146</v>
+      </c>
+      <c r="CH2" t="s">
         <v>174</v>
       </c>
-      <c r="CF2" t="s">
-        <v>147</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>147</v>
-      </c>
-      <c r="CH2" t="s">
+      <c r="CI2" t="s">
+        <v>146</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>146</v>
+      </c>
+      <c r="CK2" t="s">
         <v>175</v>
       </c>
-      <c r="CI2" t="s">
-        <v>147</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>147</v>
-      </c>
-      <c r="CK2" t="s">
+      <c r="CL2" t="s">
+        <v>146</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>146</v>
+      </c>
+      <c r="CN2" t="s">
         <v>176</v>
       </c>
-      <c r="CL2" t="s">
-        <v>147</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>147</v>
-      </c>
-      <c r="CN2" t="s">
+      <c r="CO2" t="s">
+        <v>146</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>146</v>
+      </c>
+      <c r="CQ2" t="s">
         <v>177</v>
       </c>
-      <c r="CO2" t="s">
-        <v>147</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>147</v>
-      </c>
-      <c r="CQ2" t="s">
+      <c r="CR2" t="s">
+        <v>146</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>146</v>
+      </c>
+      <c r="CT2" t="s">
         <v>178</v>
       </c>
-      <c r="CR2" t="s">
-        <v>147</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>147</v>
-      </c>
-      <c r="CT2" t="s">
+      <c r="CU2" t="s">
+        <v>146</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>146</v>
+      </c>
+      <c r="CW2" t="s">
         <v>179</v>
       </c>
-      <c r="CU2" t="s">
-        <v>147</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>147</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>180</v>
-      </c>
       <c r="CX2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CY2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CZ2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="DA2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="DB2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="DC2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" t="s">
         <v>181</v>
       </c>
-      <c r="C3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G3" t="s">
-        <v>147</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J3" t="s">
+        <v>146</v>
+      </c>
+      <c r="K3" t="s">
         <v>182</v>
       </c>
-      <c r="I3" t="s">
-        <v>147</v>
-      </c>
-      <c r="J3" t="s">
-        <v>147</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
+        <v>146</v>
+      </c>
+      <c r="M3" t="s">
+        <v>146</v>
+      </c>
+      <c r="N3" t="s">
+        <v>146</v>
+      </c>
+      <c r="O3" t="s">
+        <v>146</v>
+      </c>
+      <c r="P3" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q3" t="s">
         <v>183</v>
       </c>
-      <c r="L3" t="s">
-        <v>147</v>
-      </c>
-      <c r="M3" t="s">
-        <v>147</v>
-      </c>
-      <c r="N3" t="s">
-        <v>147</v>
-      </c>
-      <c r="O3" t="s">
-        <v>147</v>
-      </c>
-      <c r="P3" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
+        <v>146</v>
+      </c>
+      <c r="S3" t="s">
+        <v>146</v>
+      </c>
+      <c r="T3" t="s">
         <v>184</v>
       </c>
-      <c r="R3" t="s">
-        <v>147</v>
-      </c>
-      <c r="S3" t="s">
-        <v>147</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
+        <v>146</v>
+      </c>
+      <c r="V3" t="s">
+        <v>146</v>
+      </c>
+      <c r="W3" t="s">
+        <v>146</v>
+      </c>
+      <c r="X3" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AR3" t="s">
         <v>185</v>
       </c>
-      <c r="U3" t="s">
-        <v>147</v>
-      </c>
-      <c r="V3" t="s">
-        <v>147</v>
-      </c>
-      <c r="W3" t="s">
-        <v>147</v>
-      </c>
-      <c r="X3" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AR3" t="s">
+      <c r="AS3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AU3" t="s">
         <v>186</v>
       </c>
-      <c r="AS3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AU3" t="s">
+      <c r="AV3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AX3" t="s">
         <v>187</v>
       </c>
-      <c r="AV3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AX3" t="s">
+      <c r="AY3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA3" t="s">
         <v>188</v>
       </c>
-      <c r="AY3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BA3" t="s">
+      <c r="BB3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BD3" t="s">
         <v>189</v>
       </c>
-      <c r="BB3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BD3" t="s">
+      <c r="BE3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BG3" t="s">
         <v>190</v>
       </c>
-      <c r="BE3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BG3" t="s">
+      <c r="BH3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BM3" t="s">
         <v>191</v>
       </c>
-      <c r="BH3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BM3" t="s">
+      <c r="BN3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BP3" t="s">
         <v>192</v>
       </c>
-      <c r="BN3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BP3" t="s">
+      <c r="BQ3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BS3" t="s">
         <v>193</v>
       </c>
-      <c r="BQ3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BS3" t="s">
+      <c r="BT3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BY3" t="s">
         <v>194</v>
       </c>
-      <c r="BT3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BY3" t="s">
+      <c r="BZ3" t="s">
+        <v>146</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>146</v>
+      </c>
+      <c r="CB3" t="s">
         <v>195</v>
       </c>
-      <c r="BZ3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CA3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CB3" t="s">
+      <c r="CC3" t="s">
+        <v>146</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>146</v>
+      </c>
+      <c r="CE3" t="s">
         <v>196</v>
       </c>
-      <c r="CC3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CD3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CE3" t="s">
+      <c r="CF3" t="s">
+        <v>146</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>146</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>146</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>146</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>146</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>146</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>146</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>146</v>
+      </c>
+      <c r="CN3" t="s">
         <v>197</v>
       </c>
-      <c r="CF3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CH3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CI3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CJ3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CK3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CL3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CM3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CN3" t="s">
+      <c r="CO3" t="s">
+        <v>146</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>146</v>
+      </c>
+      <c r="CQ3" t="s">
         <v>198</v>
       </c>
-      <c r="CO3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CP3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CQ3" t="s">
+      <c r="CR3" t="s">
+        <v>146</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>146</v>
+      </c>
+      <c r="CT3" t="s">
         <v>199</v>
       </c>
-      <c r="CR3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CS3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CT3" t="s">
+      <c r="CU3" t="s">
+        <v>146</v>
+      </c>
+      <c r="CV3" t="s">
+        <v>146</v>
+      </c>
+      <c r="CW3" t="s">
         <v>200</v>
       </c>
-      <c r="CU3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CV3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CW3" t="s">
-        <v>201</v>
-      </c>
       <c r="CX3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CY3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CZ3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="DA3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="DB3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="DC3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="V4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Z4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AA4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AG4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AH4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AI4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AK4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AL4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AM4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AN4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AO4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AP4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AQ4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AR4" t="s">
+        <v>201</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AU4" t="s">
         <v>202</v>
       </c>
-      <c r="AS4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AU4" t="s">
+      <c r="AV4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>146</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>146</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>146</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>146</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>146</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>146</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>146</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>146</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>146</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>146</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>146</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>146</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>146</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>146</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>146</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>146</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>146</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>146</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>146</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>146</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>146</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>146</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>146</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>146</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>146</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>146</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>146</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>146</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>146</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>146</v>
+      </c>
+      <c r="CE4" t="s">
         <v>203</v>
       </c>
-      <c r="AV4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BT4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BV4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BZ4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CA4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CB4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CC4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CD4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CE4" t="s">
+      <c r="CF4" t="s">
+        <v>146</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>146</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>146</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>146</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>146</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>146</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>146</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>146</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>146</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>146</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>146</v>
+      </c>
+      <c r="CQ4" t="s">
         <v>204</v>
       </c>
-      <c r="CF4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CG4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CH4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CI4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CJ4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CK4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CL4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CM4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CN4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CO4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CP4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CQ4" t="s">
+      <c r="CR4" t="s">
+        <v>146</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>146</v>
+      </c>
+      <c r="CT4" t="s">
         <v>205</v>
       </c>
-      <c r="CR4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CS4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CT4" t="s">
+      <c r="CU4" t="s">
+        <v>146</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>146</v>
+      </c>
+      <c r="CW4" t="s">
         <v>206</v>
       </c>
-      <c r="CU4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CV4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CW4" t="s">
-        <v>207</v>
-      </c>
       <c r="CX4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CY4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CZ4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="DA4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="DB4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="DC4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="V5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Z5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AA5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AG5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AH5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AI5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AK5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AL5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AM5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AN5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AO5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AP5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AQ5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AR5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AS5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AT5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AU5" t="s">
+        <v>207</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>146</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>146</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>146</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>146</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>146</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>146</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>146</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>146</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>146</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>146</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>146</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>146</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>146</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>146</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>146</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>146</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>146</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>146</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>146</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>146</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>146</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>146</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>146</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>146</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>146</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>146</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>146</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>146</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>146</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>146</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>146</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>146</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>146</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>146</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>146</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>146</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>146</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>146</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>146</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>146</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>146</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>146</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>146</v>
+      </c>
+      <c r="CR5" t="s">
+        <v>146</v>
+      </c>
+      <c r="CS5" t="s">
+        <v>146</v>
+      </c>
+      <c r="CT5" t="s">
         <v>208</v>
       </c>
-      <c r="AV5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BE5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BG5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BI5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BJ5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BN5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BQ5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BT5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BU5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BV5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BW5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BX5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BY5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BZ5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CA5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CB5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CC5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CD5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CE5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CF5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CG5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CH5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CI5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CJ5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CK5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CL5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CM5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CN5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CO5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CP5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CQ5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CR5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CS5" t="s">
-        <v>147</v>
-      </c>
-      <c r="CT5" t="s">
-        <v>209</v>
-      </c>
       <c r="CU5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CV5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CW5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CX5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CY5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CZ5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="DA5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="DB5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="DC5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="V6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Z6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AA6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AG6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AH6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AI6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AK6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AL6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AM6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AN6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AO6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AP6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AQ6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AR6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AS6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AT6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AU6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AV6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AW6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AX6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AY6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AZ6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BA6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BB6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BC6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BD6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BE6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BF6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BG6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BH6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BI6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BJ6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BK6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BL6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BM6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BN6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BO6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BP6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BQ6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BR6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BS6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BT6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BU6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BV6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BW6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BX6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BY6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BZ6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CA6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CB6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CC6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CD6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CE6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CF6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CG6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CH6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CI6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CJ6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CK6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CL6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CM6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CN6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CO6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CP6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CQ6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CR6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CS6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CT6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CU6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CV6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CW6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CX6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CY6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CZ6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="DA6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="DB6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="DC6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
